--- a/biology/Botanique/Montrichardia/Montrichardia.xlsx
+++ b/biology/Botanique/Montrichardia/Montrichardia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Montrichardia est un genre néotropical de plantes à fleurs hélophytes, de la famille des Araceae.
-Originaire d'Amérique tropicale, on rencontre ce genre à Porto Rico, aux Antilles, au Bélize, au Costa Rica, au Guatemala, au Honduras, au Nicaragua, au Panama, en Colombie, au Pérou, au Venezuela, à Trinité-et-Tobago, au Guyana, au Suriname, en Guyane, et au Brésil[2].
+Originaire d'Amérique tropicale, on rencontre ce genre à Porto Rico, aux Antilles, au Bélize, au Costa Rica, au Guatemala, au Honduras, au Nicaragua, au Panama, en Colombie, au Pérou, au Venezuela, à Trinité-et-Tobago, au Guyana, au Suriname, en Guyane, et au Brésil.
 Les espèces actuelles de Montrichardia sont diploïdes avec 2n = 48 chromosomes. 
 </t>
         </is>
@@ -513,9 +525,11 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>†Montrichardia aquatica Herrera  - fossiles du paléocène trouvés dans un environnement de forêt néotropicale - Cerrejón Formation (en) (Colombie)[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>†Montrichardia aquatica Herrera  - fossiles du paléocène trouvés dans un environnement de forêt néotropicale - Cerrejón Formation (en) (Colombie)
 Montrichardia arborescens  (L.) Schott - Antilles, Belize, nord-ouest du Brésil, Colombie, Costa Rica, Guyane, Guatemala, Guyana, Honduras, Nicaragua, Panama, Pérou, Porto Rico, Suriname, Trinidad et Tobago, Venezuela
 Montrichardia linifera (Arruda) Schott - nord et est du Brésil, Venezuela, Colombie, Équateur, Pérou, Guyana, Suriname, Guyane</t>
         </is>
